--- a/biology/Zoologie/Azinphos-méthyl/Azinphos-méthyl.xlsx
+++ b/biology/Zoologie/Azinphos-méthyl/Azinphos-méthyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azinphos-m%C3%A9thyl</t>
+          <t>Azinphos-méthyl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’azinphos-méthyl  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet insecticide, et qui appartient à la famille chimique des organophosphorés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azinphos-m%C3%A9thyl</t>
+          <t>Azinphos-méthyl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est en révision en vue de l’inscription à l’annexe I de la directive 91/414/CEE ;
 pour la France : cette substance active est interdite par l'avis au Journal Officiel du 24 mars 2007 dans la composition de préparations bénéficiant d’une autorisation de mise sur le marché. Les dates limites d'écoulement des stocks et d'utilisation sont le 31 juillet 2007 pour la distribution, et le 31 décembre 2007 pour l'utilisation ;
-la teneur maximale autorisée en résidus d'azinphos-méthyl est de 0,05 mg·kg-1 dans les céréales[6]. Cette valeur correspond au seuil de quantification, ce qui revient à en interdire la présence dans les céréales.</t>
+la teneur maximale autorisée en résidus d'azinphos-méthyl est de 0,05 mg·kg-1 dans les céréales. Cette valeur correspond au seuil de quantification, ce qui revient à en interdire la présence dans les céréales.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azinphos-m%C3%A9thyl</t>
+          <t>Azinphos-méthyl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 hydrolyse à pH 7 : instable ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azinphos-m%C3%A9thyl</t>
+          <t>Azinphos-méthyl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur poissons : 0,003 mg·L-1 ;
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azinphos-m%C3%A9thyl</t>
+          <t>Azinphos-méthyl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Toxicité pour l’homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan de la toxicité pour l’Homme, la dose journalière acceptable (DJA) est de l’ordre de : 0,005 mg·kg-1·j-1.
 </t>
